--- a/Assets/Excel/Sound.xlsx
+++ b/Assets/Excel/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14950" windowHeight="8620"/>
+    <workbookView windowWidth="16080" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>//Remark</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>UnlockSkillNode</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>Boom</t>
   </si>
 </sst>
 </file>
@@ -974,13 +980,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1031,6 +1037,34 @@
         <v>9</v>
       </c>
       <c r="D4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>0.6</v>
       </c>
     </row>

--- a/Assets/Excel/Sound.xlsx
+++ b/Assets/Excel/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>//Remark</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Boom</t>
+  </si>
+  <si>
+    <t>LightingDestroy</t>
+  </si>
+  <si>
+    <t>FinalWork</t>
   </si>
 </sst>
 </file>
@@ -980,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1068,6 +1074,34 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Sound.xlsx
+++ b/Assets/Excel/Sound.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>//Remark</t>
   </si>
@@ -46,6 +59,9 @@
     <t>UnlockSkillNode</t>
   </si>
   <si>
+    <t>Victory</t>
+  </si>
+  <si>
     <t>FireBall</t>
   </si>
   <si>
@@ -56,12 +72,15 @@
   </si>
   <si>
     <t>FinalWork</t>
+  </si>
+  <si>
+    <t>Bite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -986,13 +1005,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1057,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1085,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1099,6 +1118,34 @@
         <v>13</v>
       </c>
       <c r="D8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
         <v>0.6</v>
       </c>
     </row>

--- a/Assets/Excel/Sound.xlsx
+++ b/Assets/Excel/Sound.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>//Remark</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Victory</t>
+  </si>
+  <si>
+    <t>RabbitAttack</t>
+  </si>
+  <si>
+    <t>Strike</t>
   </si>
   <si>
     <t>FireBall</t>
@@ -1005,10 +1011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1090,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1104,7 +1110,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1118,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1146,6 +1152,34 @@
         <v>15</v>
       </c>
       <c r="D10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
         <v>0.6</v>
       </c>
     </row>

--- a/Assets/Excel/Sound.xlsx
+++ b/Assets/Excel/Sound.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1068,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Assets/Excel/Sound.xlsx
+++ b/Assets/Excel/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="13170" windowHeight="11800"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>//Remark</t>
   </si>
@@ -59,6 +59,9 @@
     <t>UnlockSkillNode</t>
   </si>
   <si>
+    <t>Move</t>
+  </si>
+  <si>
     <t>Victory</t>
   </si>
   <si>
@@ -78,6 +81,15 @@
   </si>
   <si>
     <t>FinalWork</t>
+  </si>
+  <si>
+    <t>WhereMom</t>
+  </si>
+  <si>
+    <t>DontStudy</t>
+  </si>
+  <si>
+    <t>GogoOh</t>
   </si>
   <si>
     <t>Bite</t>
@@ -1011,10 +1023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1082,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1096,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1110,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1124,7 +1136,7 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1152,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1166,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1180,6 +1192,62 @@
         <v>17</v>
       </c>
       <c r="D12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
         <v>0.6</v>
       </c>
     </row>

--- a/Assets/Excel/Sound.xlsx
+++ b/Assets/Excel/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="11800"/>
+    <workbookView windowWidth="13830" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>//Remark</t>
   </si>
@@ -68,18 +68,78 @@
     <t>RabbitAttack</t>
   </si>
   <si>
-    <t>Strike</t>
-  </si>
-  <si>
     <t>FireBall</t>
   </si>
   <si>
     <t>Boom</t>
   </si>
   <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Fourtain</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
     <t>LightingDestroy</t>
   </si>
   <si>
+    <t>LordTime</t>
+  </si>
+  <si>
+    <t>FinalSpell</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>WorkTime</t>
+  </si>
+  <si>
+    <t>WorkWork</t>
+  </si>
+  <si>
+    <t>GoDie</t>
+  </si>
+  <si>
+    <t>Haha</t>
+  </si>
+  <si>
+    <t>Nigelu</t>
+  </si>
+  <si>
+    <t>Nigelu2</t>
+  </si>
+  <si>
+    <t>Tanomu</t>
+  </si>
+  <si>
+    <t>Tanomu2</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>RestRightNow</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>SuperWorker</t>
+  </si>
+  <si>
     <t>FinalWork</t>
   </si>
   <si>
@@ -93,6 +153,9 @@
   </si>
   <si>
     <t>Bite</t>
+  </si>
+  <si>
+    <t>Hoi</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1127,7 +1190,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1136,12 +1199,12 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1155,7 +1218,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1164,12 +1227,12 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1183,7 +1246,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1192,12 +1255,12 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1206,12 +1269,12 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1220,12 +1283,12 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1234,12 +1297,12 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1248,7 +1311,273 @@
         <v>21</v>
       </c>
       <c r="D16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
